--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009C95E-9870-4935-BBBF-6FDD339B9F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Accessibility Instructor</t>
-  </si>
-  <si>
-    <t>Mar. 2015 - Present</t>
-  </si>
-  <si>
-    <t>IT Accessibility Team, Teaching and Learning with Technology (TLT)</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -49,22 +37,130 @@
     <t>why</t>
   </si>
   <si>
-    <t>Assistant English Teacher</t>
-  </si>
-  <si>
-    <t>Mar. 2013 - May. 2013</t>
-  </si>
-  <si>
-    <t>Gunpo High School</t>
-  </si>
-  <si>
-    <t>Gyeonggi, South Korea</t>
-  </si>
-  <si>
-    <t>Taught English to 10-grade high school students.</t>
-  </si>
-  <si>
-    <t>Teaching over 100 staff members of the Penn State Accessibility team HTML5/CSS3/JavaScript coding and accessibility evaluation practice.</t>
+    <t>PSY 7650: Multilevel and Marginal Models</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Fall: 2016-present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes application of these methods to many types of cross-sectional and longitudinal research designs (eg, experimental, case-control, cohort, cross-over, complex sample, randomized controlled trials). </t>
+  </si>
+  <si>
+    <t>Coverage of multilevel (ie, mixed-effects, hierarchical linear) and marginal (ie, GEE) models for both continuous and categorical outcomes.</t>
+  </si>
+  <si>
+    <t>EDUC 6600:  Statistical Foundataions (previously: Research Design and Analysis I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research design and statistical concepts for research in education, human services, and psychology, with emphasis on the selection and interpretation of statistical analyses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on inference and ANOVA based methods. Includes a combination of traditional face-to-face and distance-site students.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software: R and R Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software: R and R Studio starting in 2018, SPSS prior </t>
+  </si>
+  <si>
+    <t>Spring/Summer: 2015-present</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>grad</t>
+  </si>
+  <si>
+    <t>undergrad</t>
+  </si>
+  <si>
+    <t>Spring/Fall: 2005, 2014</t>
+  </si>
+  <si>
+    <t>STAT 2000: Statistical Methods</t>
+  </si>
+  <si>
+    <t>Introduction to statistical concepts, graphical techniques, probability, distributions, estimation, one and two sample testing, chi-square tests, and simple linear regression, one-way ANOVA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software: StatCrunch</t>
+  </si>
+  <si>
+    <t>Psychology Department</t>
+  </si>
+  <si>
+    <t>CEHS: Office of Research Services</t>
+  </si>
+  <si>
+    <t>Mathematics and Statistics Department</t>
+  </si>
+  <si>
+    <t>2008 Spring, 2007 Spring/Fall, 2006 Fall</t>
+  </si>
+  <si>
+    <t>STAT 1040: Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>Descriptive and inferential statistical methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emphasis on conceptual understanding and statistical thinking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples presented from many different areas. </t>
+  </si>
+  <si>
+    <t>Software: none</t>
+  </si>
+  <si>
+    <t>2004 Fall</t>
+  </si>
+  <si>
+    <t>MATH 1050: College Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions: graphs, transformations, combinations, and inverses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynomial, rational, exponential, logarithmic functions, and applications. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems of equations and matrices. Partial fractions.  </t>
+  </si>
+  <si>
+    <t>Software: graphing calculators</t>
+  </si>
+  <si>
+    <t>2006 Summer</t>
+  </si>
+  <si>
+    <t>MATH 1010: Intermediate Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review of introductory algebra concepts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real world applications including linear, quadratic, polynomial, rational, exponential, and radical functions.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics include manipulating and simplifying expressions, solving equations and inequalities, graphing equations, and inequalities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube: Pre-recorded lectures for course when Covid-19 induced a shift to online, asynchronous learing </t>
+  </si>
+  <si>
+    <t>Assignments online through Atomic Assessment within Canvas</t>
+  </si>
+  <si>
+    <t>Online eBook: all class examples with code and explainations</t>
   </si>
 </sst>
 </file>
@@ -873,64 +969,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009C95E-9870-4935-BBBF-6FDD339B9F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F39CCCD-8D02-4D34-BA26-0E350AE71DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>what</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">Software: R and R Studio starting in 2018, SPSS prior </t>
   </si>
   <si>
-    <t>Spring/Summer: 2015-present</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Software: none</t>
   </si>
   <si>
-    <t>2004 Fall</t>
-  </si>
-  <si>
     <t>MATH 1050: College Algebra</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>Software: graphing calculators</t>
   </si>
   <si>
-    <t>2006 Summer</t>
-  </si>
-  <si>
     <t>MATH 1010: Intermediate Algebra</t>
   </si>
   <si>
@@ -161,6 +152,24 @@
   </si>
   <si>
     <t>Online eBook: all class examples with code and explainations</t>
+  </si>
+  <si>
+    <t>Spring/Sum 2015-present</t>
+  </si>
+  <si>
+    <t>Fall 2004</t>
+  </si>
+  <si>
+    <t>Summer 2006</t>
+  </si>
+  <si>
+    <t>Spring 2022</t>
+  </si>
+  <si>
+    <t>PSY 3010: Psycological Statistics</t>
+  </si>
+  <si>
+    <t>Focus on behavior statistics and statistical applications.</t>
   </si>
 </sst>
 </file>
@@ -969,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -987,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1007,10 +1016,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1037,23 +1046,23 @@
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1077,155 +1086,195 @@
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D15" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F19" t="s">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F26" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F25" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F26" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F39CCCD-8D02-4D34-BA26-0E350AE71DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB54091-F85A-4411-8530-DC1B4369574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="3105" windowWidth="21600" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>what</t>
   </si>
@@ -37,24 +37,12 @@
     <t>why</t>
   </si>
   <si>
-    <t>PSY 7650: Multilevel and Marginal Models</t>
-  </si>
-  <si>
-    <t>Utah State University</t>
-  </si>
-  <si>
-    <t>Fall: 2016-present</t>
-  </si>
-  <si>
     <t xml:space="preserve">Includes application of these methods to many types of cross-sectional and longitudinal research designs (eg, experimental, case-control, cohort, cross-over, complex sample, randomized controlled trials). </t>
   </si>
   <si>
     <t>Coverage of multilevel (ie, mixed-effects, hierarchical linear) and marginal (ie, GEE) models for both continuous and categorical outcomes.</t>
   </si>
   <si>
-    <t>EDUC 6600:  Statistical Foundataions (previously: Research Design and Analysis I)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research design and statistical concepts for research in education, human services, and psychology, with emphasis on the selection and interpretation of statistical analyses. </t>
   </si>
   <si>
@@ -79,30 +67,15 @@
     <t>Spring/Fall: 2005, 2014</t>
   </si>
   <si>
-    <t>STAT 2000: Statistical Methods</t>
-  </si>
-  <si>
     <t>Introduction to statistical concepts, graphical techniques, probability, distributions, estimation, one and two sample testing, chi-square tests, and simple linear regression, one-way ANOVA.</t>
   </si>
   <si>
     <t xml:space="preserve"> Software: StatCrunch</t>
   </si>
   <si>
-    <t>Psychology Department</t>
-  </si>
-  <si>
-    <t>CEHS: Office of Research Services</t>
-  </si>
-  <si>
-    <t>Mathematics and Statistics Department</t>
-  </si>
-  <si>
     <t>2008 Spring, 2007 Spring/Fall, 2006 Fall</t>
   </si>
   <si>
-    <t>STAT 1040: Introduction to Statistics</t>
-  </si>
-  <si>
     <t>Descriptive and inferential statistical methods.</t>
   </si>
   <si>
@@ -118,9 +91,6 @@
     <t>Software: none</t>
   </si>
   <si>
-    <t>MATH 1050: College Algebra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Functions: graphs, transformations, combinations, and inverses. </t>
   </si>
   <si>
@@ -133,9 +103,6 @@
     <t>Software: graphing calculators</t>
   </si>
   <si>
-    <t>MATH 1010: Intermediate Algebra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Review of introductory algebra concepts. </t>
   </si>
   <si>
@@ -154,9 +121,6 @@
     <t>Online eBook: all class examples with code and explainations</t>
   </si>
   <si>
-    <t>Spring/Sum 2015-present</t>
-  </si>
-  <si>
     <t>Fall 2004</t>
   </si>
   <si>
@@ -166,10 +130,82 @@
     <t>Spring 2022</t>
   </si>
   <si>
-    <t>PSY 3010: Psycological Statistics</t>
-  </si>
-  <si>
     <t>Focus on behavior statistics and statistical applications.</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Multiple linear regression and GLM (logisitc)</t>
+  </si>
+  <si>
+    <t>Main effects and interactions with statistical control</t>
+  </si>
+  <si>
+    <t>Spring 2015-2024, Summer 2015-2019</t>
+  </si>
+  <si>
+    <t>Fall 2016-present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software: R and R Studio </t>
+  </si>
+  <si>
+    <t>Regression Analysis</t>
+  </si>
+  <si>
+    <t>EDUC 7610/PSY 7610</t>
+  </si>
+  <si>
+    <t>PSY 7650</t>
+  </si>
+  <si>
+    <t>Multilevel and Marginal Models</t>
+  </si>
+  <si>
+    <t>EDUC 6600/PSY 6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical Foundataions </t>
+  </si>
+  <si>
+    <t>USU: Psychology Department</t>
+  </si>
+  <si>
+    <t>USU-CEHS: Office of Research Services</t>
+  </si>
+  <si>
+    <t>PSY 3010</t>
+  </si>
+  <si>
+    <t>Psycological Statistics</t>
+  </si>
+  <si>
+    <t>STAT 2000</t>
+  </si>
+  <si>
+    <t>Statistical Methods</t>
+  </si>
+  <si>
+    <t>STAT 1040</t>
+  </si>
+  <si>
+    <t>Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>MATH 1050</t>
+  </si>
+  <si>
+    <t>College Algebra</t>
+  </si>
+  <si>
+    <t>MATH 1010</t>
+  </si>
+  <si>
+    <t>Intermediate Algebra</t>
+  </si>
+  <si>
+    <t>USU:Mathematics and Statistics Department</t>
   </si>
 </sst>
 </file>
@@ -653,9 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -978,303 +1012,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="24.1328125" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F3" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F26" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F28" t="s">
-        <v>31</v>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
